--- a/data/trans_orig/P72-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P72-Habitat-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6214</v>
+        <v>6743</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003785153595507254</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02106712251164564</v>
+        <v>0.02286349322938551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5466</v>
+        <v>4846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003849077858307969</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02150972049182779</v>
+        <v>0.01906855555123223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7073</v>
+        <v>7780</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003814740377056494</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01288155882444913</v>
+        <v>0.01416876164730808</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>3849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9994</v>
+        <v>9174</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01305101767574891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00319276760159386</v>
+        <v>0.003248334327704092</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03388308681556042</v>
+        <v>0.0311048059711051</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6868</v>
+        <v>6540</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005107858364148999</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02702380339053346</v>
+        <v>0.02573489385059814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -856,19 +856,19 @@
         <v>5147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1913</v>
+        <v>1890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11204</v>
+        <v>11441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009374596406789214</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003484641411466917</v>
+        <v>0.003442160933402563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02040522320536829</v>
+        <v>0.02083659828295007</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>5640</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1986</v>
+        <v>2734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12100</v>
+        <v>11362</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01912378160563638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006732653575310448</v>
+        <v>0.009271045343778875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04102455722119434</v>
+        <v>0.03852158308089867</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -906,19 +906,19 @@
         <v>5860</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1965</v>
+        <v>2066</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11869</v>
+        <v>11888</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02306020187718274</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007730807366814493</v>
+        <v>0.008128869067515103</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04670220752892065</v>
+        <v>0.04677963590401686</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -927,19 +927,19 @@
         <v>11501</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6489</v>
+        <v>6482</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19041</v>
+        <v>20774</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02094571902904205</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0118187808827488</v>
+        <v>0.01180464362908868</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03467845242197609</v>
+        <v>0.03783330989551005</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>25200</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16303</v>
+        <v>16901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35742</v>
+        <v>36051</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08544101300701773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05527474728399138</v>
+        <v>0.05730247192709497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1211838813448671</v>
+        <v>0.1222308255979803</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -977,19 +977,19 @@
         <v>20126</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12237</v>
+        <v>12601</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30757</v>
+        <v>30444</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07919396048272249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04815061697261731</v>
+        <v>0.04958185343119677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1210263429295223</v>
+        <v>0.1197941558998541</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -998,19 +998,19 @@
         <v>45326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34041</v>
+        <v>34353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58989</v>
+        <v>60553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08254961981349491</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0619956590950487</v>
+        <v>0.06256468625067108</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1074325040890754</v>
+        <v>0.1102814505668297</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>92853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76644</v>
+        <v>76984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107503</v>
+        <v>108977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3148155494989479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2598590303801594</v>
+        <v>0.2610136994656431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3644883882804095</v>
+        <v>0.3694851228671479</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -1048,19 +1048,19 @@
         <v>56883</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44995</v>
+        <v>45819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70380</v>
+        <v>70532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2238276891308558</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.177050556374319</v>
+        <v>0.1802933234263769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2769383182249294</v>
+        <v>0.2775340513681941</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>147</v>
@@ -1069,19 +1069,19 @@
         <v>149736</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>130116</v>
+        <v>131450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>170116</v>
+        <v>172791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2727026203794372</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2369709228823054</v>
+        <v>0.2394010180511305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.309820453682799</v>
+        <v>0.3146923772402899</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>100415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>84665</v>
+        <v>83889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>116939</v>
+        <v>117419</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3404540460862761</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2870552948946632</v>
+        <v>0.2844229656133667</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3964789217352664</v>
+        <v>0.3981067236746298</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>100</v>
@@ -1119,19 +1119,19 @@
         <v>98086</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>82947</v>
+        <v>83785</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>113913</v>
+        <v>112598</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3859569259740728</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.326385192970966</v>
+        <v>0.3296826247831176</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4482332650195404</v>
+        <v>0.4430583595754765</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>200</v>
@@ -1140,19 +1140,19 @@
         <v>198500</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>175374</v>
+        <v>176111</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>219223</v>
+        <v>223104</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3615146529375214</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3193960196536124</v>
+        <v>0.3207390417609356</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3992543120210336</v>
+        <v>0.4063241159404446</v>
       </c>
     </row>
     <row r="10">
@@ -1169,19 +1169,19 @@
         <v>55184</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43644</v>
+        <v>43246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69036</v>
+        <v>68398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1871020896229897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1479758725787456</v>
+        <v>0.146625212642433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2340653313748908</v>
+        <v>0.2319017663226158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1190,19 +1190,19 @@
         <v>55016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42225</v>
+        <v>43388</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67645</v>
+        <v>67788</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2164816326091764</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1661500104431735</v>
+        <v>0.1707253674161657</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2661744768455862</v>
+        <v>0.2667392961551608</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -1211,19 +1211,19 @@
         <v>110200</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93670</v>
+        <v>92830</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128199</v>
+        <v>129883</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2007001521154536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1705936092208239</v>
+        <v>0.1690654711617545</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2334797079729829</v>
+        <v>0.2365467519250898</v>
       </c>
     </row>
     <row r="11">
@@ -1240,19 +1240,19 @@
         <v>10685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5757</v>
+        <v>5790</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18398</v>
+        <v>19310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03622734890787601</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01951996811585448</v>
+        <v>0.0196315505201331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06237807557124816</v>
+        <v>0.06547087254327096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1261,19 +1261,19 @@
         <v>15889</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9610</v>
+        <v>9649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25233</v>
+        <v>24258</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06252265370353279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03781408648824289</v>
+        <v>0.03796786229809645</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09928822475669813</v>
+        <v>0.09545304962381967</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1282,19 +1282,19 @@
         <v>26574</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18352</v>
+        <v>17807</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37817</v>
+        <v>37932</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04839789894120509</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03342403307845977</v>
+        <v>0.03243151989571396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06887324400121066</v>
+        <v>0.06908238972270328</v>
       </c>
     </row>
     <row r="12">
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7788</v>
+        <v>7862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004458705395614321</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0157070445706282</v>
+        <v>0.01585636781074727</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7772</v>
+        <v>7670</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002148526778160598</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007552549265043478</v>
+        <v>0.007453956330457376</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>18135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10302</v>
+        <v>10108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30292</v>
+        <v>30383</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03401480034004283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01932335895051433</v>
+        <v>0.01895924697614736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05681652038760252</v>
+        <v>0.05698750745674441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1470,19 +1470,19 @@
         <v>10060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4776</v>
+        <v>4601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18389</v>
+        <v>17977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02028839579938192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009632391234416051</v>
+        <v>0.009278781131875828</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03708589852853508</v>
+        <v>0.03625571009286709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1491,19 +1491,19 @@
         <v>28195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18717</v>
+        <v>18249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43381</v>
+        <v>41813</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02740042573873284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01818923447128661</v>
+        <v>0.0177345059458478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04215835128785493</v>
+        <v>0.04063446171889214</v>
       </c>
     </row>
     <row r="15">
@@ -1520,19 +1520,19 @@
         <v>29569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19343</v>
+        <v>20009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41042</v>
+        <v>42608</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05546061958147643</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03628066671802489</v>
+        <v>0.03752960343523912</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07698036944935356</v>
+        <v>0.079916320264316</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -1541,19 +1541,19 @@
         <v>21476</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13471</v>
+        <v>13019</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31569</v>
+        <v>32397</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04331175523028053</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02716733954414914</v>
+        <v>0.02625569957655776</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06366650660106611</v>
+        <v>0.06533635555487764</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>46</v>
@@ -1562,19 +1562,19 @@
         <v>51045</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>38247</v>
+        <v>38661</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>67132</v>
+        <v>68437</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04960641795414763</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03716949656549964</v>
+        <v>0.0375717489042223</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06523999907216113</v>
+        <v>0.06650891055895937</v>
       </c>
     </row>
     <row r="16">
@@ -1591,19 +1591,19 @@
         <v>84695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68903</v>
+        <v>68485</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103551</v>
+        <v>105390</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1588574305682632</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1292361282047904</v>
+        <v>0.1284523526187605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1942244792800088</v>
+        <v>0.1976732721603427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -1612,19 +1612,19 @@
         <v>68810</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54456</v>
+        <v>54899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85479</v>
+        <v>85157</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1387741703927733</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1098241738353427</v>
+        <v>0.1107182171904614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1723903265275062</v>
+        <v>0.1717406220934148</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -1633,19 +1633,19 @@
         <v>153506</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130941</v>
+        <v>131167</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177631</v>
+        <v>179221</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1491798631016508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1272506535077516</v>
+        <v>0.1274704105340273</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1726249689049683</v>
+        <v>0.1741704679245952</v>
       </c>
     </row>
     <row r="17">
@@ -1662,19 +1662,19 @@
         <v>165591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142485</v>
+        <v>143206</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188872</v>
+        <v>188032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3105886100244882</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.267250513720637</v>
+        <v>0.2686032638003947</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3542560593005844</v>
+        <v>0.3526800348053603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -1683,19 +1683,19 @@
         <v>107431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88213</v>
+        <v>90705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>125377</v>
+        <v>127984</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2166631888532241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1779044562242484</v>
+        <v>0.1829310822926462</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.252855580862381</v>
+        <v>0.2581125965362949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>249</v>
@@ -1704,19 +1704,19 @@
         <v>273022</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>244635</v>
+        <v>244543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>303905</v>
+        <v>309349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2653285480488821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2377409546044351</v>
+        <v>0.2376514153196845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2953407237860885</v>
+        <v>0.3006319525681453</v>
       </c>
     </row>
     <row r="18">
@@ -1733,19 +1733,19 @@
         <v>140917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>119853</v>
+        <v>121412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>164361</v>
+        <v>163380</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2643084904875941</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2248016518829237</v>
+        <v>0.2277248162062581</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3082824825361602</v>
+        <v>0.306442536663661</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>157</v>
@@ -1754,19 +1754,19 @@
         <v>170359</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>149214</v>
+        <v>148367</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>192180</v>
+        <v>189499</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3435729860670367</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3009293359162674</v>
+        <v>0.2992213384420005</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3875800504869157</v>
+        <v>0.3821748482144777</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>286</v>
@@ -1775,19 +1775,19 @@
         <v>311276</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>282910</v>
+        <v>283154</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>344501</v>
+        <v>343868</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3025038580212592</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2749374571845626</v>
+        <v>0.2751744941233853</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.334792557108945</v>
+        <v>0.3341775494807984</v>
       </c>
     </row>
     <row r="19">
@@ -1804,19 +1804,19 @@
         <v>83570</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67656</v>
+        <v>67926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102864</v>
+        <v>102678</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1567478739381158</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.126898139607502</v>
+        <v>0.1274052109095677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1929361792562201</v>
+        <v>0.1925874000916938</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>83</v>
@@ -1825,19 +1825,19 @@
         <v>93107</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76525</v>
+        <v>76725</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111149</v>
+        <v>112775</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1877739129786586</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1543317351127902</v>
+        <v>0.1547349209384736</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2241608769134241</v>
+        <v>0.2274400220570297</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>163</v>
@@ -1846,19 +1846,19 @@
         <v>176677</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151980</v>
+        <v>154139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201268</v>
+        <v>202518</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1716984638031539</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.147697259064463</v>
+        <v>0.1497958578167364</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1955958827520746</v>
+        <v>0.1968110188610981</v>
       </c>
     </row>
     <row r="20">
@@ -1875,19 +1875,19 @@
         <v>10675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5186</v>
+        <v>4975</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20177</v>
+        <v>18730</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02002217506001958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0097273114622453</v>
+        <v>0.009331506034728003</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03784487303867608</v>
+        <v>0.03513007600171089</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1896,19 +1896,19 @@
         <v>22391</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14052</v>
+        <v>14867</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33787</v>
+        <v>33717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04515688528303057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02833956986117767</v>
+        <v>0.0299841141400072</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06814012401044353</v>
+        <v>0.06799887807021342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -1917,19 +1917,19 @@
         <v>33066</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22482</v>
+        <v>22673</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46514</v>
+        <v>47464</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03213389655401292</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02184868438596009</v>
+        <v>0.02203446725281023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0452036937880031</v>
+        <v>0.04612598894817791</v>
       </c>
     </row>
     <row r="21">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10542</v>
+        <v>8807</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004387939229806319</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02503090454515019</v>
+        <v>0.02091173648919561</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9198</v>
+        <v>9234</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002187708071904792</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01088851924185781</v>
+        <v>0.01093069031328035</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>19790</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12358</v>
+        <v>12328</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29576</v>
+        <v>30916</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04698750642706925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02934281034034443</v>
+        <v>0.02927186600391737</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0702235949608289</v>
+        <v>0.07340391136952661</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2105,19 +2105,19 @@
         <v>8779</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4029</v>
+        <v>3847</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16794</v>
+        <v>16993</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0207248927014539</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009511043051858075</v>
+        <v>0.009081292875862863</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03964827420659799</v>
+        <v>0.0401163402957106</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2126,19 +2126,19 @@
         <v>28568</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19675</v>
+        <v>19730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40035</v>
+        <v>42424</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03381872309148469</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0232910436358818</v>
+        <v>0.02335619358362799</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04739210491531002</v>
+        <v>0.05022005777543508</v>
       </c>
     </row>
     <row r="24">
@@ -2155,19 +2155,19 @@
         <v>16563</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9543</v>
+        <v>9453</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25088</v>
+        <v>25693</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03932620722804817</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02265760572112097</v>
+        <v>0.02244358336866164</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05956650354364926</v>
+        <v>0.06100364616117489</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2176,19 +2176,19 @@
         <v>21714</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13859</v>
+        <v>14172</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31751</v>
+        <v>32692</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0512623191174781</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03271932562831584</v>
+        <v>0.03345777832022128</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07495857934342129</v>
+        <v>0.07717957452353283</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -2197,19 +2197,19 @@
         <v>38277</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27503</v>
+        <v>27899</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51314</v>
+        <v>53182</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0453112958785311</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03255746342818688</v>
+        <v>0.03302637751291883</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06074440181945032</v>
+        <v>0.06295600499872597</v>
       </c>
     </row>
     <row r="25">
@@ -2226,19 +2226,19 @@
         <v>60740</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46493</v>
+        <v>46823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77190</v>
+        <v>76843</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1442160562535021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1103891127611621</v>
+        <v>0.1111733623490315</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1832739730166392</v>
+        <v>0.1824500864270398</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -2247,19 +2247,19 @@
         <v>52326</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39669</v>
+        <v>40312</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66582</v>
+        <v>66613</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1235316714708537</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09365118164745115</v>
+        <v>0.09516893662659193</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1571890702283878</v>
+        <v>0.1572618206200168</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -2268,19 +2268,19 @@
         <v>113065</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92647</v>
+        <v>94496</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133738</v>
+        <v>134622</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1338443474632653</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.109673793689145</v>
+        <v>0.1118619383410392</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1583166378381829</v>
+        <v>0.159362135351804</v>
       </c>
     </row>
     <row r="26">
@@ -2297,19 +2297,19 @@
         <v>104628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86489</v>
+        <v>86028</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122261</v>
+        <v>122040</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2484216358238719</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2053529609811584</v>
+        <v>0.2042584080415779</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2902886967779648</v>
+        <v>0.2897641344400884</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>90</v>
@@ -2318,19 +2318,19 @@
         <v>86613</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70553</v>
+        <v>68995</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103164</v>
+        <v>103041</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.204478405459516</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1665623885770417</v>
+        <v>0.1628849216147576</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2435518002909303</v>
+        <v>0.2432603051052753</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -2339,19 +2339,19 @@
         <v>191241</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>165268</v>
+        <v>166397</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>216238</v>
+        <v>216865</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.226387314115463</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1956401673531858</v>
+        <v>0.1969767844467094</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2559775345575613</v>
+        <v>0.2567197059946704</v>
       </c>
     </row>
     <row r="27">
@@ -2368,19 +2368,19 @@
         <v>128183</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>110006</v>
+        <v>108772</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>147268</v>
+        <v>146997</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3043489347574642</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.261189846174312</v>
+        <v>0.2582602683744086</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.349664216952238</v>
+        <v>0.3490202235261077</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>134</v>
@@ -2389,19 +2389,19 @@
         <v>128482</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>109396</v>
+        <v>109168</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>146862</v>
+        <v>145894</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3033223844155938</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2582632174555767</v>
+        <v>0.2577252452315346</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3467153671632383</v>
+        <v>0.3444283747285539</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>255</v>
@@ -2410,19 +2410,19 @@
         <v>256665</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>232020</v>
+        <v>227496</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>287418</v>
+        <v>281213</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3038341947100188</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2746607278320325</v>
+        <v>0.2693046203021273</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3402393573113</v>
+        <v>0.3328932359928906</v>
       </c>
     </row>
     <row r="28">
@@ -2439,19 +2439,19 @@
         <v>81778</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64560</v>
+        <v>65181</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>98758</v>
+        <v>99579</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1941690455151799</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.153287476435502</v>
+        <v>0.1547602577703052</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2344837915206398</v>
+        <v>0.2364336728965514</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>105</v>
@@ -2460,19 +2460,19 @@
         <v>103917</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>86911</v>
+        <v>88658</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>121780</v>
+        <v>121508</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2453290275129482</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2051810027549431</v>
+        <v>0.2093045893150098</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2875000857419059</v>
+        <v>0.2868581168385353</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>183</v>
@@ -2481,19 +2481,19 @@
         <v>185695</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>163325</v>
+        <v>163800</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>212802</v>
+        <v>212931</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2198220412687559</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1933402827593988</v>
+        <v>0.1939028537015138</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2519107951031188</v>
+        <v>0.2520635909599165</v>
       </c>
     </row>
     <row r="29">
@@ -2510,19 +2510,19 @@
         <v>7641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3020</v>
+        <v>3074</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14831</v>
+        <v>15330</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01814267476505816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007170969240817362</v>
+        <v>0.007299212988963145</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03521423184627762</v>
+        <v>0.03639859064753037</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -2531,19 +2531,19 @@
         <v>21751</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14200</v>
+        <v>14654</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32569</v>
+        <v>31855</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05135129932215635</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03352361180956632</v>
+        <v>0.03459652454355625</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07688933220979578</v>
+        <v>0.07520296293709038</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -2552,19 +2552,19 @@
         <v>29393</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20434</v>
+        <v>19523</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>42381</v>
+        <v>41463</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03479437540057639</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0241897984938428</v>
+        <v>0.02311130590199325</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05016957822060054</v>
+        <v>0.04908348341272946</v>
       </c>
     </row>
     <row r="30">
@@ -2656,19 +2656,19 @@
         <v>3357</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9540</v>
+        <v>9460</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00585934148484431</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001548669066301026</v>
+        <v>0.001546945454318049</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01664929176415465</v>
+        <v>0.01650952913638893</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2677,19 +2677,19 @@
         <v>2973</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8000</v>
+        <v>7932</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.005155978271075757</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00161746682162317</v>
+        <v>0.00162658263732514</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01387619487071016</v>
+        <v>0.01375895317728185</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -2698,19 +2698,19 @@
         <v>6330</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2748</v>
+        <v>2003</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14995</v>
+        <v>13354</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.005506577542013589</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002390921686509599</v>
+        <v>0.001742292504633659</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0130449538150612</v>
+        <v>0.01161744363159527</v>
       </c>
     </row>
     <row r="32">
@@ -2727,19 +2727,19 @@
         <v>20988</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13374</v>
+        <v>13301</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30587</v>
+        <v>31138</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03662925630079791</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02334083706964969</v>
+        <v>0.023212912236329</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0533816980173828</v>
+        <v>0.05434351390731166</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2748,19 +2748,19 @@
         <v>12170</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7058</v>
+        <v>7069</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21090</v>
+        <v>21276</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02110914713960551</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01224303847885719</v>
+        <v>0.01226170073791726</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03658099477064931</v>
+        <v>0.03690358543154407</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -2769,19 +2769,19 @@
         <v>33158</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>23557</v>
+        <v>23363</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>46832</v>
+        <v>46137</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02884531936225482</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02049315595281482</v>
+        <v>0.02032464896478249</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0407404042154043</v>
+        <v>0.04013615792234743</v>
       </c>
     </row>
     <row r="33">
@@ -2798,19 +2798,19 @@
         <v>34338</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>24075</v>
+        <v>24552</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>46122</v>
+        <v>46107</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05992738092955184</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0420160269761027</v>
+        <v>0.04284839502469896</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08049331994341094</v>
+        <v>0.08046730085632145</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>30</v>
@@ -2819,19 +2819,19 @@
         <v>32473</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>21909</v>
+        <v>22279</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>44838</v>
+        <v>44522</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05632505030377205</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0380025190495979</v>
+        <v>0.03864295251836677</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0777727050205205</v>
+        <v>0.07722484838706814</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>66</v>
@@ -2840,19 +2840,19 @@
         <v>66810</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>51550</v>
+        <v>51478</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>84023</v>
+        <v>84674</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05812067234705254</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04484539288614735</v>
+        <v>0.04478291635705</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07309410683056197</v>
+        <v>0.07366065525891853</v>
       </c>
     </row>
     <row r="34">
@@ -2869,19 +2869,19 @@
         <v>91302</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>74273</v>
+        <v>74925</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>110202</v>
+        <v>109702</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1593438544484235</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1296247530106912</v>
+        <v>0.130761933939809</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1923296139448172</v>
+        <v>0.1914560527418716</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>80</v>
@@ -2890,19 +2890,19 @@
         <v>83025</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>66553</v>
+        <v>67264</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101261</v>
+        <v>99514</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1440091554148567</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1154388744333012</v>
+        <v>0.1166717302354169</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1756403455483241</v>
+        <v>0.1726102521610233</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>175</v>
@@ -2911,19 +2911,19 @@
         <v>174327</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>148049</v>
+        <v>150258</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>197987</v>
+        <v>200410</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1516529078829645</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1287928505058903</v>
+        <v>0.1307145856954082</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.17223570096777</v>
+        <v>0.1743431809276188</v>
       </c>
     </row>
     <row r="35">
@@ -2940,19 +2940,19 @@
         <v>140178</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>120697</v>
+        <v>118677</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>161130</v>
+        <v>160434</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2446443740294816</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2106446397013673</v>
+        <v>0.2071205830518424</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2812098044555592</v>
+        <v>0.2799959447387586</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>121</v>
@@ -2961,19 +2961,19 @@
         <v>124954</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>106131</v>
+        <v>106315</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>145509</v>
+        <v>144968</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2167372615340352</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1840869357916785</v>
+        <v>0.1844061410162618</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2523903912923746</v>
+        <v>0.2514511923137525</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>268</v>
@@ -2982,19 +2982,19 @@
         <v>265132</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>238115</v>
+        <v>238911</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>293546</v>
+        <v>294453</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2306478742919312</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2071440510230329</v>
+        <v>0.2078368746038918</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2553655071295869</v>
+        <v>0.2561548908958639</v>
       </c>
     </row>
     <row r="36">
@@ -3011,19 +3011,19 @@
         <v>181046</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>157452</v>
+        <v>160580</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>201237</v>
+        <v>201917</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.315969438964394</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2747915101276502</v>
+        <v>0.2802503941330224</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.351207619232434</v>
+        <v>0.3523942767858897</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>164</v>
@@ -3032,19 +3032,19 @@
         <v>174753</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>153650</v>
+        <v>152019</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>197162</v>
+        <v>196243</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3031142100774897</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2665109949922143</v>
+        <v>0.2636812405882133</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3419837534285124</v>
+        <v>0.340389533173717</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>353</v>
@@ -3053,19 +3053,19 @@
         <v>355799</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>325711</v>
+        <v>325603</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>388130</v>
+        <v>387860</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3095220428831597</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2833469736794996</v>
+        <v>0.2832532952949487</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3376472179621235</v>
+        <v>0.3374131036612412</v>
       </c>
     </row>
     <row r="37">
@@ -3082,19 +3082,19 @@
         <v>92881</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>76639</v>
+        <v>77441</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>111573</v>
+        <v>113624</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1620993486142729</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1337535409171043</v>
+        <v>0.1351531771986687</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1947212389463538</v>
+        <v>0.198301652488569</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>111</v>
@@ -3103,19 +3103,19 @@
         <v>117312</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>98828</v>
+        <v>99446</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>138079</v>
+        <v>136349</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2034806519490843</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1714197348972771</v>
+        <v>0.172491545006079</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2395028853861603</v>
+        <v>0.2365010045630529</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>210</v>
@@ -3124,19 +3124,19 @@
         <v>210192</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>186008</v>
+        <v>183536</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>235860</v>
+        <v>239601</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1828536778684975</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1618151559831161</v>
+        <v>0.1596641483964248</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2051829137704436</v>
+        <v>0.2084373242640205</v>
       </c>
     </row>
     <row r="38">
@@ -3153,19 +3153,19 @@
         <v>8897</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4071</v>
+        <v>3435</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>17892</v>
+        <v>17864</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01552700522823388</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.007105224504440851</v>
+        <v>0.005995587788952541</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03122538409088577</v>
+        <v>0.03117681966611919</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>27</v>
@@ -3174,19 +3174,19 @@
         <v>28866</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18833</v>
+        <v>19491</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>40175</v>
+        <v>41159</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05006854531008086</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03266565022936779</v>
+        <v>0.03380789144475979</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06968515905658663</v>
+        <v>0.07139071310393545</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>35</v>
@@ -3195,19 +3195,19 @@
         <v>37763</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>27044</v>
+        <v>26655</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>54975</v>
+        <v>52357</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03285092782212615</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02352635236895392</v>
+        <v>0.02318797405087039</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04782491035798306</v>
+        <v>0.04554706268174841</v>
       </c>
     </row>
     <row r="39">
@@ -3299,19 +3299,19 @@
         <v>6322</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2032</v>
+        <v>1834</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14505</v>
+        <v>14100</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0034692240340443</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001114877462621319</v>
+        <v>0.001006186145142291</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007960183225802003</v>
+        <v>0.007737689946546407</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3320,19 +3320,19 @@
         <v>6162</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2169</v>
+        <v>2923</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13334</v>
+        <v>13436</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003520717685825732</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001239224233218248</v>
+        <v>0.001669943618127096</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.007619318238344048</v>
+        <v>0.007677306850397991</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -3341,19 +3341,19 @@
         <v>12483</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6737</v>
+        <v>6501</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>22375</v>
+        <v>21407</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003494450752405992</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001885992028338802</v>
+        <v>0.001819754297847709</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006263267223494452</v>
+        <v>0.005992317366530479</v>
       </c>
     </row>
     <row r="41">
@@ -3370,19 +3370,19 @@
         <v>62762</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>47913</v>
+        <v>48875</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>79308</v>
+        <v>81055</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03444210387750378</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02629306124303007</v>
+        <v>0.02682109362791072</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04352175004195527</v>
+        <v>0.04448049018750627</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>30</v>
@@ -3391,19 +3391,19 @@
         <v>32307</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>22627</v>
+        <v>22104</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>45755</v>
+        <v>45061</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01845999829067772</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0129288904481532</v>
+        <v>0.01262993404930806</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02614422611799025</v>
+        <v>0.0257477094451223</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>90</v>
@@ -3412,19 +3412,19 @@
         <v>95069</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>75303</v>
+        <v>76545</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>115894</v>
+        <v>118487</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02661247706880527</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02107952978903948</v>
+        <v>0.02142711800207591</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03244197197567698</v>
+        <v>0.03316789702257355</v>
       </c>
     </row>
     <row r="42">
@@ -3441,19 +3441,19 @@
         <v>86110</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>70258</v>
+        <v>69636</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>107746</v>
+        <v>105822</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04725470349861655</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03855573613615304</v>
+        <v>0.03821447461319798</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05912778405245653</v>
+        <v>0.05807233729392641</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>78</v>
@@ -3462,19 +3462,19 @@
         <v>81523</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>64577</v>
+        <v>65073</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>101705</v>
+        <v>100925</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04658218099343886</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03689908366735057</v>
+        <v>0.03718247545870372</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05811411476673562</v>
+        <v>0.05766876899562154</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>163</v>
@@ -3483,19 +3483,19 @@
         <v>167633</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>142708</v>
+        <v>144440</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>194158</v>
+        <v>193108</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04692523500603365</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03994809957625763</v>
+        <v>0.04043279828367388</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05435030863570924</v>
+        <v>0.05405650112428313</v>
       </c>
     </row>
     <row r="43">
@@ -3512,19 +3512,19 @@
         <v>261937</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>231912</v>
+        <v>233928</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>293658</v>
+        <v>297431</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.143743459772482</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1272663990246495</v>
+        <v>0.1283727375039032</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1611512554116914</v>
+        <v>0.16322133631245</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>220</v>
@@ -3533,19 +3533,19 @@
         <v>224287</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>198711</v>
+        <v>195311</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>252288</v>
+        <v>250825</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1281576359109593</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1135434784017728</v>
+        <v>0.1116004844894099</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1441571902896844</v>
+        <v>0.1433211790990669</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>471</v>
@@ -3554,19 +3554,19 @@
         <v>486224</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>446841</v>
+        <v>447304</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>527337</v>
+        <v>526790</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1361079712144274</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1250834506669905</v>
+        <v>0.1252132105011408</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1476167413314655</v>
+        <v>0.147463495617319</v>
       </c>
     </row>
     <row r="44">
@@ -3583,19 +3583,19 @@
         <v>503250</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>467055</v>
+        <v>464638</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>542335</v>
+        <v>544724</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2761689065697386</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.256306364086172</v>
+        <v>0.2549801202537358</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.297617596129024</v>
+        <v>0.2989289063781531</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>369</v>
@@ -3604,19 +3604,19 @@
         <v>375882</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>341681</v>
+        <v>344569</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>412421</v>
+        <v>410276</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2147788339606051</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1952363444253546</v>
+        <v>0.1968867285498868</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2356572723841983</v>
+        <v>0.2344316877923247</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>855</v>
@@ -3625,19 +3625,19 @@
         <v>879132</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>830736</v>
+        <v>826981</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>932271</v>
+        <v>925769</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2460939358046458</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2325465717262045</v>
+        <v>0.2314953625993351</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2609690421775022</v>
+        <v>0.2591489129116781</v>
       </c>
     </row>
     <row r="45">
@@ -3654,19 +3654,19 @@
         <v>550560</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>514374</v>
+        <v>509334</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>590599</v>
+        <v>594335</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3021317406579757</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2822736785362271</v>
+        <v>0.2795078863701037</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3241038859323061</v>
+        <v>0.3261540886030743</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>555</v>
@@ -3675,19 +3675,19 @@
         <v>571680</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>535299</v>
+        <v>531242</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>613686</v>
+        <v>612601</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.3266575052332101</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3058695196275417</v>
+        <v>0.3035515725362032</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3506597531218379</v>
+        <v>0.3500397028049155</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1094</v>
@@ -3696,19 +3696,19 @@
         <v>1122240</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1063456</v>
+        <v>1068333</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1179120</v>
+        <v>1178673</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.3141469024136564</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2976914857438147</v>
+        <v>0.2990568172652748</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3300690586535205</v>
+        <v>0.3299439231716864</v>
       </c>
     </row>
     <row r="46">
@@ -3725,19 +3725,19 @@
         <v>313414</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>285305</v>
+        <v>282751</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>348659</v>
+        <v>342610</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1719926347701101</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1565672920869412</v>
+        <v>0.1551656518468027</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1913342031196346</v>
+        <v>0.1880143262366787</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>354</v>
@@ -3746,19 +3746,19 @@
         <v>369351</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>333945</v>
+        <v>336126</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>405268</v>
+        <v>402188</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2110472047998804</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1908162264796575</v>
+        <v>0.1920622933515246</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2315698246962587</v>
+        <v>0.2298100326504913</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>669</v>
@@ -3767,19 +3767,19 @@
         <v>682765</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>639204</v>
+        <v>638120</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>726311</v>
+        <v>731428</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1911254522105941</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1789312409912123</v>
+        <v>0.17862800298351</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2033151451368321</v>
+        <v>0.2047475646227027</v>
       </c>
     </row>
     <row r="47">
@@ -3796,19 +3796,19 @@
         <v>37898</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>27838</v>
+        <v>26363</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>55177</v>
+        <v>50643</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02079722681952896</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01527687455433446</v>
+        <v>0.01446739138809646</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03027974252469658</v>
+        <v>0.02779128199301538</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>86</v>
@@ -3817,19 +3817,19 @@
         <v>88897</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>69861</v>
+        <v>72450</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>108404</v>
+        <v>109039</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05079592312540276</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03991836057151869</v>
+        <v>0.04139797726442036</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06194224446569157</v>
+        <v>0.06230463816312441</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>121</v>
@@ -3838,19 +3838,19 @@
         <v>126795</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>107250</v>
+        <v>105574</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>149594</v>
+        <v>151874</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03549357552943131</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03002242775157475</v>
+        <v>0.0295530259807095</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04187565009352449</v>
+        <v>0.04251380315384444</v>
       </c>
     </row>
     <row r="48">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3343</v>
+        <v>5027</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001310704596595381</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006028087512195721</v>
+        <v>0.009064789830784455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5814</v>
+        <v>5058</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001836614333527341</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01058629954700837</v>
+        <v>0.009210332333566702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5569</v>
+        <v>5692</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001572387769603937</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005045896438682503</v>
+        <v>0.005157158005958921</v>
       </c>
     </row>
     <row r="5">
@@ -4253,19 +4253,19 @@
         <v>4749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1039</v>
+        <v>1013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12625</v>
+        <v>12028</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008563840476123064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001874259639411838</v>
+        <v>0.001826726538572807</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02276773771927955</v>
+        <v>0.0216907082785959</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -4274,19 +4274,19 @@
         <v>3321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11169</v>
+        <v>9043</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006046607394030293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001701936283023135</v>
+        <v>0.001694568136538268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02033694352088782</v>
+        <v>0.01646647611651628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -4295,19 +4295,19 @@
         <v>8070</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3591</v>
+        <v>3763</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16195</v>
+        <v>17547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007311310823474008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003254017112859001</v>
+        <v>0.003409430909092542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01467345209635357</v>
+        <v>0.01589792463040314</v>
       </c>
     </row>
     <row r="6">
@@ -4324,19 +4324,19 @@
         <v>15531</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8754</v>
+        <v>8738</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25796</v>
+        <v>26205</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02800828138433174</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01578680027837836</v>
+        <v>0.0157579211932211</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04651935088242376</v>
+        <v>0.04725704042769237</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -4345,19 +4345,19 @@
         <v>14574</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8547</v>
+        <v>8051</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25397</v>
+        <v>24974</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02653774936909001</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01556288011572657</v>
+        <v>0.01465990748279371</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04624496256208196</v>
+        <v>0.04547430803136317</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -4366,19 +4366,19 @@
         <v>30105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20852</v>
+        <v>19706</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43524</v>
+        <v>42560</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02727657125094642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01889277948698077</v>
+        <v>0.01785468702777528</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03943460801167568</v>
+        <v>0.03856071125375202</v>
       </c>
     </row>
     <row r="7">
@@ -4395,19 +4395,19 @@
         <v>46154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33941</v>
+        <v>33852</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61157</v>
+        <v>60733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08323166553980989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06120778371762717</v>
+        <v>0.06104735290423029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1102870201525345</v>
+        <v>0.1095227376253858</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -4416,19 +4416,19 @@
         <v>38510</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27474</v>
+        <v>27780</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52063</v>
+        <v>52207</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0701213608102387</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05002671710642118</v>
+        <v>0.05058367870585984</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09480106622067667</v>
+        <v>0.09506267927212277</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -4437,19 +4437,19 @@
         <v>84663</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67624</v>
+        <v>69138</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105246</v>
+        <v>104408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07670821503144418</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06126961167596193</v>
+        <v>0.06264185350855331</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0953568619773186</v>
+        <v>0.09459736005428633</v>
       </c>
     </row>
     <row r="8">
@@ -4466,19 +4466,19 @@
         <v>94843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78036</v>
+        <v>77026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114592</v>
+        <v>114080</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1710346756382</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.140727096374256</v>
+        <v>0.1389045087689947</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2066487945268361</v>
+        <v>0.2057272037274561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -4487,19 +4487,19 @@
         <v>65447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51371</v>
+        <v>51369</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82841</v>
+        <v>80606</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1191702349401979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09354080107814994</v>
+        <v>0.09353712922447632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.150843060858554</v>
+        <v>0.1467746350188159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -4508,19 +4508,19 @@
         <v>160289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137934</v>
+        <v>136753</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>187242</v>
+        <v>185434</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1452278680150067</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1249736190086281</v>
+        <v>0.1239035339311034</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1696480306735956</v>
+        <v>0.1680095888266164</v>
       </c>
     </row>
     <row r="9">
@@ -4537,19 +4537,19 @@
         <v>233938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>209134</v>
+        <v>211398</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>258617</v>
+        <v>260241</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4218733444727453</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3771415743837037</v>
+        <v>0.3812252140648492</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4663768097349579</v>
+        <v>0.4693053126702915</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>223</v>
@@ -4558,19 +4558,19 @@
         <v>240316</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>214894</v>
+        <v>217182</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>263718</v>
+        <v>264748</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4375869151429116</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3912959131163873</v>
+        <v>0.3954625296437735</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4801981961488374</v>
+        <v>0.4820739914725164</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>449</v>
@@ -4579,19 +4579,19 @@
         <v>474255</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>440548</v>
+        <v>441040</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>505352</v>
+        <v>509227</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4296921330280812</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3991526132711451</v>
+        <v>0.399598763619877</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4578673530435996</v>
+        <v>0.4613788190490054</v>
       </c>
     </row>
     <row r="10">
@@ -4608,19 +4608,19 @@
         <v>146053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125108</v>
+        <v>125151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165982</v>
+        <v>168191</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2633843570432217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2256143931398029</v>
+        <v>0.2256914439837196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2993245764731657</v>
+        <v>0.3033083652925219</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -4629,19 +4629,19 @@
         <v>163241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143819</v>
+        <v>141742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184190</v>
+        <v>184764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2972423553161206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2618772422456759</v>
+        <v>0.2580958472305457</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3353871904920341</v>
+        <v>0.33643382502068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>293</v>
@@ -4650,19 +4650,19 @@
         <v>309294</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>281046</v>
+        <v>279881</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>343531</v>
+        <v>341348</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2802314845968168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2546380772853074</v>
+        <v>0.2535826597294238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.311251332473831</v>
+        <v>0.3092739651247244</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>12528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6850</v>
+        <v>6884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20809</v>
+        <v>20057</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02259313084897296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01235294782180684</v>
+        <v>0.01241472389609833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03752617529947979</v>
+        <v>0.03616916878716494</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -4700,19 +4700,19 @@
         <v>22768</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14586</v>
+        <v>14290</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34885</v>
+        <v>33469</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04145816269388351</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02655970970561659</v>
+        <v>0.02602019763824212</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06352113569867315</v>
+        <v>0.06094365812305098</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -4721,19 +4721,19 @@
         <v>35297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24460</v>
+        <v>24774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47941</v>
+        <v>49067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03198002948462674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0221612848256834</v>
+        <v>0.02244582433038104</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04343634353990543</v>
+        <v>0.04445672524894262</v>
       </c>
     </row>
     <row r="12">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5668</v>
+        <v>5193</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001361110624745893</v>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006855238146017572</v>
+        <v>0.006280067353979063</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7205</v>
+        <v>5657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0007071497856409202</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004527026066279291</v>
+        <v>0.003554256675493088</v>
       </c>
     </row>
     <row r="14">
@@ -4888,19 +4888,19 @@
         <v>13925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7490</v>
+        <v>7440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25344</v>
+        <v>25243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01821097248546395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009795166286193624</v>
+        <v>0.00972943299424987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03314380167697843</v>
+        <v>0.03301222103999858</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -4909,19 +4909,19 @@
         <v>11333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5255</v>
+        <v>6026</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20481</v>
+        <v>19945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01370649300648599</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006355170809478522</v>
+        <v>0.007288175894608101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02477022968654323</v>
+        <v>0.02412168605711807</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -4930,19 +4930,19 @@
         <v>25258</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15838</v>
+        <v>16431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37603</v>
+        <v>38595</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01587072060580658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009951734175009923</v>
+        <v>0.01032400227621531</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02362752287729409</v>
+        <v>0.02425082302083748</v>
       </c>
     </row>
     <row r="15">
@@ -4959,19 +4959,19 @@
         <v>21798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13382</v>
+        <v>13305</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34822</v>
+        <v>34112</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02850632760017445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01750094315126841</v>
+        <v>0.01739955328954098</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04553994121301692</v>
+        <v>0.04461124568844511</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -4980,19 +4980,19 @@
         <v>16685</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9614</v>
+        <v>9094</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27801</v>
+        <v>26286</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02017894292999725</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01162777725953694</v>
+        <v>0.01099850785150491</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03362223900232248</v>
+        <v>0.03179064709363098</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>33</v>
@@ -5001,19 +5001,19 @@
         <v>38482</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>26946</v>
+        <v>26634</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>54734</v>
+        <v>51827</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02417992813094346</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01693115189255061</v>
+        <v>0.01673488539075931</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03439119508316125</v>
+        <v>0.03256485552950929</v>
       </c>
     </row>
     <row r="16">
@@ -5030,19 +5030,19 @@
         <v>61937</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47548</v>
+        <v>48675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80983</v>
+        <v>80521</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08100011436053929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06218258112932176</v>
+        <v>0.063656042102402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1059078904833841</v>
+        <v>0.1053036757560223</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -5051,19 +5051,19 @@
         <v>50398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37701</v>
+        <v>37481</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65807</v>
+        <v>66113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0609520009812658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04559626580840424</v>
+        <v>0.04533000773117623</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07958765943167564</v>
+        <v>0.07995776281407985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -5072,19 +5072,19 @@
         <v>112335</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93468</v>
+        <v>91932</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134258</v>
+        <v>134171</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07058434151966177</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05872944259809548</v>
+        <v>0.05776422750758084</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08435915717316347</v>
+        <v>0.08430436219760903</v>
       </c>
     </row>
     <row r="17">
@@ -5101,19 +5101,19 @@
         <v>138269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117722</v>
+        <v>115759</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>162065</v>
+        <v>161614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1808251238275767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.153953785953704</v>
+        <v>0.1513872745895973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2119442514114202</v>
+        <v>0.2113545989218028</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -5122,19 +5122,19 @@
         <v>148606</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126887</v>
+        <v>126849</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174301</v>
+        <v>172117</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1797261686172576</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1534584307705763</v>
+        <v>0.1534121487716587</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2108017891645279</v>
+        <v>0.2081600856334284</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>262</v>
@@ -5143,19 +5143,19 @@
         <v>286875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>255504</v>
+        <v>256951</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321086</v>
+        <v>321303</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1802541739523223</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1605423355988005</v>
+        <v>0.1614515624468076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2017499955273684</v>
+        <v>0.2018863052975608</v>
       </c>
     </row>
     <row r="18">
@@ -5172,19 +5172,19 @@
         <v>290776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>263755</v>
+        <v>265278</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>318580</v>
+        <v>319824</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3802695795637634</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3449327065891123</v>
+        <v>0.346924421745362</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4166311131488509</v>
+        <v>0.4182579644226465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>288</v>
@@ -5193,19 +5193,19 @@
         <v>313727</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>284088</v>
+        <v>286679</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>340228</v>
+        <v>344806</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3794244872650584</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.343579371073728</v>
+        <v>0.3467131068998524</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4114757494935796</v>
+        <v>0.4170125223109721</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>557</v>
@@ -5214,19 +5214,19 @@
         <v>604502</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>563394</v>
+        <v>564208</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>644856</v>
+        <v>647964</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3798305213219048</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3540010426678884</v>
+        <v>0.3545120255732036</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4051863148072096</v>
+        <v>0.4071392120577653</v>
       </c>
     </row>
     <row r="19">
@@ -5243,19 +5243,19 @@
         <v>190047</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>165219</v>
+        <v>162529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>216900</v>
+        <v>214466</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2485383062591589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2160690609688022</v>
+        <v>0.2125515257136763</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2836565006915243</v>
+        <v>0.2804731183573876</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>223</v>
@@ -5264,19 +5264,19 @@
         <v>244874</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>217202</v>
+        <v>217273</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>273570</v>
+        <v>271703</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2961534631439696</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2626861133111915</v>
+        <v>0.2627720670196664</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3308587436154379</v>
+        <v>0.3286010572166025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>395</v>
@@ -5285,19 +5285,19 @@
         <v>434920</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>395863</v>
+        <v>397785</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>473540</v>
+        <v>474427</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2732762279035798</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2487346953491542</v>
+        <v>0.2499427177245633</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2975423303892684</v>
+        <v>0.2980998417089482</v>
       </c>
     </row>
     <row r="20">
@@ -5314,19 +5314,19 @@
         <v>47905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35047</v>
+        <v>35227</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63100</v>
+        <v>62071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06264957590332323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04583391425713949</v>
+        <v>0.0460692572360906</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08252026141515699</v>
+        <v>0.0811750255864563</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -5335,19 +5335,19 @@
         <v>40100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28247</v>
+        <v>28769</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54510</v>
+        <v>53921</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04849733343121945</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03416168316417385</v>
+        <v>0.03479390688003057</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06592483411399998</v>
+        <v>0.06521243471607181</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>80</v>
@@ -5356,19 +5356,19 @@
         <v>88005</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72802</v>
+        <v>70552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>110380</v>
+        <v>109912</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05529693678014037</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04574394092011679</v>
+        <v>0.04433026072778867</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06935552480465458</v>
+        <v>0.06906175692298289</v>
       </c>
     </row>
     <row r="21">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8791</v>
+        <v>7861</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004501315647086473</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01605245385534914</v>
+        <v>0.01435419049618223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -5481,19 +5481,19 @@
         <v>2977</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7962</v>
+        <v>8090</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005119007356014244</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001677066255500316</v>
+        <v>0.001683744496003162</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01369084980390483</v>
+        <v>0.01391018206432558</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -5502,19 +5502,19 @@
         <v>5442</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12177</v>
+        <v>12003</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004819446599458592</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00177242247225951</v>
+        <v>0.001774933183030168</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01078407941039153</v>
+        <v>0.01062993067530093</v>
       </c>
     </row>
     <row r="23">
@@ -5531,19 +5531,19 @@
         <v>18497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10820</v>
+        <v>10676</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30593</v>
+        <v>29729</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03377731098321023</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01975777549094492</v>
+        <v>0.01949585603321656</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05586463463362071</v>
+        <v>0.05428783637851925</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -5552,19 +5552,19 @@
         <v>4926</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1005</v>
+        <v>1914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14777</v>
+        <v>12942</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008469400973257209</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00172749976043749</v>
+        <v>0.003290408298923601</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02540833245754706</v>
+        <v>0.02225361336315727</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -5573,19 +5573,19 @@
         <v>23423</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14456</v>
+        <v>13804</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36907</v>
+        <v>37222</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02074292927200017</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0128024688492908</v>
+        <v>0.01222497836931436</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03268397637652914</v>
+        <v>0.03296316396880297</v>
       </c>
     </row>
     <row r="24">
@@ -5602,19 +5602,19 @@
         <v>23636</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15356</v>
+        <v>15752</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34515</v>
+        <v>34944</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04316175079360899</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02804047560832273</v>
+        <v>0.02876468315834345</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06302773047689889</v>
+        <v>0.06380935744354412</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -5623,19 +5623,19 @@
         <v>22339</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12931</v>
+        <v>14047</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33914</v>
+        <v>35155</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03841075766077837</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02223394758743664</v>
+        <v>0.02415289054568311</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05831496055009835</v>
+        <v>0.06044873213030588</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>41</v>
@@ -5644,19 +5644,19 @@
         <v>45975</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33296</v>
+        <v>33201</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61965</v>
+        <v>62921</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04071483763577424</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02948669157461813</v>
+        <v>0.02940211975113752</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05487547179266222</v>
+        <v>0.05572175506825112</v>
       </c>
     </row>
     <row r="25">
@@ -5673,19 +5673,19 @@
         <v>50939</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37938</v>
+        <v>37632</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>67311</v>
+        <v>66954</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09301742878164931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06927696908672171</v>
+        <v>0.06871912165982139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1229153063571368</v>
+        <v>0.1222622155612015</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -5694,19 +5694,19 @@
         <v>41961</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30331</v>
+        <v>30076</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58241</v>
+        <v>58370</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07215081164907688</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05215293353063468</v>
+        <v>0.05171472234741729</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1001443700324436</v>
+        <v>0.1003655063353452</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -5715,19 +5715,19 @@
         <v>92899</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>72910</v>
+        <v>74645</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114492</v>
+        <v>111228</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08227045470829993</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06456807688399259</v>
+        <v>0.06610415851960881</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1013927453918218</v>
+        <v>0.09850200720603468</v>
       </c>
     </row>
     <row r="26">
@@ -5744,19 +5744,19 @@
         <v>97029</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80291</v>
+        <v>79348</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121208</v>
+        <v>121476</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1771819499895949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.146616233910037</v>
+        <v>0.1448951978765889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2213349025519905</v>
+        <v>0.2218233051708625</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -5765,19 +5765,19 @@
         <v>105128</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>86371</v>
+        <v>86502</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>125765</v>
+        <v>127080</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1807650660348023</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1485130221832912</v>
+        <v>0.1487377088161216</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2162503283166399</v>
+        <v>0.2185112142234487</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>177</v>
@@ -5786,19 +5786,19 @@
         <v>202157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>174886</v>
+        <v>176572</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>231536</v>
+        <v>232480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1790273691581642</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1548764112933875</v>
+        <v>0.1563701033741905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.205045017251437</v>
+        <v>0.2058809206797399</v>
       </c>
     </row>
     <row r="27">
@@ -5815,19 +5815,19 @@
         <v>176294</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>155287</v>
+        <v>155527</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>200111</v>
+        <v>200110</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.321924800600302</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2835653701276558</v>
+        <v>0.2840033171908982</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3654168849420805</v>
+        <v>0.365414315568009</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>165</v>
@@ -5836,19 +5836,19 @@
         <v>179734</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>155575</v>
+        <v>156316</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>202545</v>
+        <v>204391</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3090493294693523</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2675074333244283</v>
+        <v>0.2687821605178716</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3482708751547905</v>
+        <v>0.3514452067670783</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>330</v>
@@ -5857,19 +5857,19 @@
         <v>356028</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>323667</v>
+        <v>323523</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>389588</v>
+        <v>386964</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3152935218670339</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2866346668552678</v>
+        <v>0.2865070786113527</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.34501350261703</v>
+        <v>0.3426902288217956</v>
       </c>
     </row>
     <row r="28">
@@ -5886,19 +5886,19 @@
         <v>143647</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>123522</v>
+        <v>122505</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>166591</v>
+        <v>167416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2623087301043022</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2255606304303631</v>
+        <v>0.2237036533558568</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3042077613274798</v>
+        <v>0.3057141159888977</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>175</v>
@@ -5907,19 +5907,19 @@
         <v>191830</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>171243</v>
+        <v>166300</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>214850</v>
+        <v>215423</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3298481083992358</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2944491418991767</v>
+        <v>0.2859491608157234</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3694303870512611</v>
+        <v>0.3704141686683176</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>312</v>
@@ -5928,19 +5928,19 @@
         <v>335477</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>306909</v>
+        <v>304648</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>368810</v>
+        <v>370204</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.297093666390537</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2717941209433031</v>
+        <v>0.2697923053338374</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.326612532899776</v>
+        <v>0.3278471364344776</v>
       </c>
     </row>
     <row r="29">
@@ -5957,19 +5957,19 @@
         <v>35117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24772</v>
+        <v>25384</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49102</v>
+        <v>50244</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06412671310024591</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0452357060410762</v>
+        <v>0.04635301208271068</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08966295487125275</v>
+        <v>0.09174927300185379</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -5978,19 +5978,19 @@
         <v>32677</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22623</v>
+        <v>22753</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46127</v>
+        <v>45456</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05618751845748291</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03889954539303765</v>
+        <v>0.03912275507545639</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07931457003285353</v>
+        <v>0.07816034652939445</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>63</v>
@@ -5999,19 +5999,19 @@
         <v>67794</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53154</v>
+        <v>51691</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>88155</v>
+        <v>83369</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06003777436873194</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04707266952617517</v>
+        <v>0.04577651219578054</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07806908205336614</v>
+        <v>0.07383005292731902</v>
       </c>
     </row>
     <row r="30">
@@ -6103,19 +6103,19 @@
         <v>2875</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7694</v>
+        <v>7820</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003999957721353396</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001250868854144122</v>
+        <v>0.001228662649094897</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01070372554478979</v>
+        <v>0.01087791494607286</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -6137,19 +6137,19 @@
         <v>2875</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7959</v>
+        <v>7966</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001895159685761022</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0005880896826326523</v>
+        <v>0.0005891210668239278</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.005245541586044966</v>
+        <v>0.005250486357407431</v>
       </c>
     </row>
     <row r="32">
@@ -6166,19 +6166,19 @@
         <v>16440</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9514</v>
+        <v>9327</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27014</v>
+        <v>26353</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02286970867183748</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01323452621878821</v>
+        <v>0.01297538446144874</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03757908026789009</v>
+        <v>0.03665994487845097</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -6187,19 +6187,19 @@
         <v>9640</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4781</v>
+        <v>4722</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18187</v>
+        <v>19002</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01207515387345127</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005988962982831153</v>
+        <v>0.005914699973076599</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02278027102066052</v>
+        <v>0.02380156421038838</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -6208,19 +6208,19 @@
         <v>26080</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>16496</v>
+        <v>17454</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39318</v>
+        <v>39956</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01718955920089506</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01087275335621682</v>
+        <v>0.01150360265527852</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02591440274184774</v>
+        <v>0.02633488598402639</v>
       </c>
     </row>
     <row r="33">
@@ -6237,19 +6237,19 @@
         <v>28886</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>20461</v>
+        <v>19672</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>42369</v>
+        <v>39653</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04018413390190169</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02846366224776351</v>
+        <v>0.02736646175746984</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05894027220951203</v>
+        <v>0.05516165730930201</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>27</v>
@@ -6258,19 +6258,19 @@
         <v>28053</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>18885</v>
+        <v>18443</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>40294</v>
+        <v>39950</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0351379529052108</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02365485158349288</v>
+        <v>0.02310068134158064</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05047023017833607</v>
+        <v>0.05003890172843594</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>56</v>
@@ -6279,19 +6279,19 @@
         <v>56940</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>44211</v>
+        <v>42679</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>73749</v>
+        <v>72871</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03752880787373436</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02913914032333609</v>
+        <v>0.02812995796100827</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04860760187732292</v>
+        <v>0.04802920517899097</v>
       </c>
     </row>
     <row r="34">
@@ -6308,19 +6308,19 @@
         <v>75079</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>60015</v>
+        <v>60940</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>92939</v>
+        <v>92711</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1044427586193832</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08348768150487404</v>
+        <v>0.08477347007294471</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1292877286811022</v>
+        <v>0.1289714057028326</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>64</v>
@@ -6329,19 +6329,19 @@
         <v>67722</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>53472</v>
+        <v>52553</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>85294</v>
+        <v>83093</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08482550776926354</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06697600087103162</v>
+        <v>0.06582511095627544</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1068357834445323</v>
+        <v>0.1040780580080819</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>138</v>
@@ -6350,19 +6350,19 @@
         <v>142801</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>121751</v>
+        <v>120245</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>167060</v>
+        <v>167940</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09412006174870625</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08024590080147978</v>
+        <v>0.07925318792883027</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1101093811861723</v>
+        <v>0.1106890235792878</v>
       </c>
     </row>
     <row r="35">
@@ -6379,19 +6379,19 @@
         <v>129439</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>109040</v>
+        <v>109072</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>152812</v>
+        <v>149677</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1800635117507537</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1516862684099248</v>
+        <v>0.1517313555813082</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2125777966649084</v>
+        <v>0.2082169896676768</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>133</v>
@@ -6400,19 +6400,19 @@
         <v>139340</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>117719</v>
+        <v>118283</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>161500</v>
+        <v>160286</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1745305778442796</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1474486296598639</v>
+        <v>0.1481558615455221</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2022877518977899</v>
+        <v>0.2007668967837034</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -6421,19 +6421,19 @@
         <v>268779</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>240757</v>
+        <v>241062</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>301890</v>
+        <v>299154</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1771520538732768</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.15868286829772</v>
+        <v>0.1588837713920644</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.19897545194827</v>
+        <v>0.1971722639991323</v>
       </c>
     </row>
     <row r="36">
@@ -6450,19 +6450,19 @@
         <v>282164</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>256519</v>
+        <v>254975</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>309532</v>
+        <v>310793</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3925199451033479</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3568452900421041</v>
+        <v>0.3546979743924488</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4305917613398695</v>
+        <v>0.4323462443760404</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>261</v>
@@ -6471,19 +6471,19 @@
         <v>271914</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>245533</v>
+        <v>246565</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>302579</v>
+        <v>299931</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3405862157421228</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.307543493267509</v>
+        <v>0.3088353709019407</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3789954877917859</v>
+        <v>0.3756791898639223</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>530</v>
@@ -6492,19 +6492,19 @@
         <v>554078</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>519833</v>
+        <v>516897</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>595271</v>
+        <v>596155</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3651921533727125</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3426214598972556</v>
+        <v>0.3406863121965709</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3923424993325628</v>
+        <v>0.392925328535679</v>
       </c>
     </row>
     <row r="37">
@@ -6521,19 +6521,19 @@
         <v>146971</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>125623</v>
+        <v>125352</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>171147</v>
+        <v>169952</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.20445250259998</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1747551340420921</v>
+        <v>0.1743774465867799</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2380837977720938</v>
+        <v>0.2364212451891442</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>228</v>
@@ -6542,19 +6542,19 @@
         <v>240436</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>215667</v>
+        <v>214650</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>264442</v>
+        <v>267873</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3011585944410107</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2701341727782267</v>
+        <v>0.2688605002963292</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3312273717305849</v>
+        <v>0.3355243228007467</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>368</v>
@@ -6563,19 +6563,19 @@
         <v>387407</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>354606</v>
+        <v>351298</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>424994</v>
+        <v>422305</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2553397384950501</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2337205005149403</v>
+        <v>0.2315400809205893</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2801130041130356</v>
+        <v>0.278341087075925</v>
       </c>
     </row>
     <row r="38">
@@ -6592,19 +6592,19 @@
         <v>36998</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>25973</v>
+        <v>26902</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>50523</v>
+        <v>51486</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05146748163144261</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03613120615413246</v>
+        <v>0.03742318251025522</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07028347841291931</v>
+        <v>0.07162246659081906</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>38</v>
@@ -6613,19 +6613,19 @@
         <v>41265</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>30434</v>
+        <v>30676</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>58296</v>
+        <v>58301</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05168599742466121</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03812001988759776</v>
+        <v>0.03842270624976776</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07301882521636092</v>
+        <v>0.07302522757315251</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>72</v>
@@ -6634,19 +6634,19 @@
         <v>78262</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>62188</v>
+        <v>59925</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>98316</v>
+        <v>95977</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05158246574986394</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0409877395043142</v>
+        <v>0.03949681073164283</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06480032005379407</v>
+        <v>0.06325811323357564</v>
       </c>
     </row>
     <row r="39">
@@ -6738,19 +6738,19 @@
         <v>6067</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2522</v>
+        <v>2450</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13060</v>
+        <v>12952</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002346492796825136</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0009753639901182639</v>
+        <v>0.0009475335880007777</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005050766359259556</v>
+        <v>0.005009359437866371</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -6759,19 +6759,19 @@
         <v>5111</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1995</v>
+        <v>1979</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10732</v>
+        <v>11874</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001854568374803732</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.000723986978142496</v>
+        <v>0.0007181584874726307</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.003893957140997427</v>
+        <v>0.004308558037603771</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -6780,19 +6780,19 @@
         <v>11178</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6049</v>
+        <v>5827</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>21874</v>
+        <v>19051</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002092687971227367</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00113235728491204</v>
+        <v>0.001090891307450993</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004095022313425926</v>
+        <v>0.0035664977385517</v>
       </c>
     </row>
     <row r="41">
@@ -6809,19 +6809,19 @@
         <v>53611</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>39814</v>
+        <v>39171</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>74223</v>
+        <v>74054</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02073407998448553</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01539821503835196</v>
+        <v>0.01514920626579316</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02870554447260107</v>
+        <v>0.02864040229102813</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>26</v>
@@ -6830,19 +6830,19 @@
         <v>29220</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>19436</v>
+        <v>19819</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>43350</v>
+        <v>42672</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01060238222829155</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007052146264995008</v>
+        <v>0.00719118768993479</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01572938110022646</v>
+        <v>0.01548359042151004</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>72</v>
@@ -6851,19 +6851,19 @@
         <v>82831</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>64807</v>
+        <v>64159</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>104889</v>
+        <v>103074</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01550670425987019</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01213246976752408</v>
+        <v>0.01201105102541106</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01963618031947598</v>
+        <v>0.01929640148587424</v>
       </c>
     </row>
     <row r="42">
@@ -6880,19 +6880,19 @@
         <v>89852</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>72845</v>
+        <v>72445</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>110226</v>
+        <v>110803</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03475004346854481</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0281725626021979</v>
+        <v>0.02801800584023736</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04262962588216017</v>
+        <v>0.04285307635560351</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>74</v>
@@ -6901,19 +6901,19 @@
         <v>81651</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>64637</v>
+        <v>64594</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>102171</v>
+        <v>102242</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0296268117792851</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02345323381494683</v>
+        <v>0.02343784725630562</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03707258553753898</v>
+        <v>0.03709834401036887</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>157</v>
@@ -6922,19 +6922,19 @@
         <v>171502</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>146655</v>
+        <v>145529</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>201338</v>
+        <v>199332</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03210674936241697</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02745503938036709</v>
+        <v>0.0272442609641425</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0376922900563522</v>
+        <v>0.03731670009504334</v>
       </c>
     </row>
     <row r="43">
@@ -6951,19 +6951,19 @@
         <v>234109</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>203653</v>
+        <v>208851</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>263926</v>
+        <v>266060</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.09054129574065474</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07876246952407599</v>
+        <v>0.0807730292379511</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1020732723639495</v>
+        <v>0.1028985159799194</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>181</v>
@@ -6972,19 +6972,19 @@
         <v>198591</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>173782</v>
+        <v>173816</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>230062</v>
+        <v>227563</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07205822294010421</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06305649398941406</v>
+        <v>0.06306885639122731</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0834774388564328</v>
+        <v>0.08257088293577025</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>401</v>
@@ -6993,19 +6993,19 @@
         <v>432699</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>392185</v>
+        <v>391877</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>474932</v>
+        <v>473467</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08100508883842764</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07342048210331875</v>
+        <v>0.07336271071713814</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08891147489381314</v>
+        <v>0.08863721706324679</v>
       </c>
     </row>
     <row r="44">
@@ -7022,19 +7022,19 @@
         <v>459580</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>420859</v>
+        <v>418863</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>505243</v>
+        <v>502870</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.177742112898069</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1627668460146399</v>
+        <v>0.1619947174898069</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1954023490809462</v>
+        <v>0.1944846760685726</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>424</v>
@@ -7043,19 +7043,19 @@
         <v>458521</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>421927</v>
+        <v>418019</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>503139</v>
+        <v>503745</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1663732815965527</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1530953111453308</v>
+        <v>0.1516772459726966</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1825630450818094</v>
+        <v>0.1827829509097117</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>844</v>
@@ -7064,19 +7064,19 @@
         <v>918101</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>859182</v>
+        <v>862756</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>979183</v>
+        <v>971657</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1718764471238939</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1608464265308461</v>
+        <v>0.1615155118218044</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1833117065655613</v>
+        <v>0.1819026088885171</v>
       </c>
     </row>
     <row r="45">
@@ -7093,19 +7093,19 @@
         <v>983172</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>934704</v>
+        <v>928430</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1036389</v>
+        <v>1028173</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3802407431149112</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3614960589252834</v>
+        <v>0.3590695203306152</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4008225486799421</v>
+        <v>0.3976448352425496</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>937</v>
@@ -7114,19 +7114,19 @@
         <v>1005691</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>951441</v>
+        <v>956563</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1057015</v>
+        <v>1063010</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.3649129011567623</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3452283764124172</v>
+        <v>0.3470869646505113</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3835356316659949</v>
+        <v>0.3857107333572106</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1866</v>
@@ -7135,19 +7135,19 @@
         <v>1988863</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1918228</v>
+        <v>1916983</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>2067168</v>
+        <v>2064754</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.3723324546038584</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3591090263241185</v>
+        <v>0.3588759876947931</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3869919846823627</v>
+        <v>0.3865399825799792</v>
       </c>
     </row>
     <row r="46">
@@ -7164,19 +7164,19 @@
         <v>626717</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>581879</v>
+        <v>580992</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>674105</v>
+        <v>671358</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2423821587107605</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2250411267848427</v>
+        <v>0.2246979168165192</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2607093521849635</v>
+        <v>0.25964723979611</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>782</v>
@@ -7185,19 +7185,19 @@
         <v>840382</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>791566</v>
+        <v>791009</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>893064</v>
+        <v>893042</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3049306854924581</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2872181293872256</v>
+        <v>0.2870158491097342</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3240464725736748</v>
+        <v>0.3240382464870155</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1368</v>
@@ -7206,19 +7206,19 @@
         <v>1467098</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1394419</v>
+        <v>1393167</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1532476</v>
+        <v>1536032</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2746536159114266</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2610474900954327</v>
+        <v>0.2608129520379461</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2868929379273011</v>
+        <v>0.2875586081778467</v>
       </c>
     </row>
     <row r="47">
@@ -7235,19 +7235,19 @@
         <v>132549</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>111329</v>
+        <v>113503</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>158245</v>
+        <v>156830</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05126307328574904</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04305644406873893</v>
+        <v>0.04389721275592722</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06120102770022768</v>
+        <v>0.06065402173035005</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>125</v>
@@ -7256,19 +7256,19 @@
         <v>136810</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>114183</v>
+        <v>116305</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>161648</v>
+        <v>163584</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04964114643174233</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04143114016676914</v>
+        <v>0.04220111661299453</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05865368041694619</v>
+        <v>0.05935599065889353</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>248</v>
@@ -7277,19 +7277,19 @@
         <v>269358</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>238423</v>
+        <v>235563</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>304202</v>
+        <v>304263</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0504262519288789</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04463491185592645</v>
+        <v>0.0440995337303971</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05694922119535179</v>
+        <v>0.05696074786567627</v>
       </c>
     </row>
     <row r="48">
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4094</v>
+        <v>4135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001605974631258374</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007987230658478225</v>
+        <v>0.008068014966873871</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4155</v>
+        <v>4114</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0008046628274815835</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004062239241747328</v>
+        <v>0.004022310292865613</v>
       </c>
     </row>
     <row r="5">
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7394</v>
+        <v>7614</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004200737843270667</v>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01448627186404436</v>
+        <v>0.01491883683897601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6478</v>
+        <v>8491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00209598629571571</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006332500692570448</v>
+        <v>0.008301055082128087</v>
       </c>
     </row>
     <row r="6">
@@ -7747,19 +7747,19 @@
         <v>11062</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6059</v>
+        <v>5318</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19166</v>
+        <v>19967</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02167297757874228</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01187171017035085</v>
+        <v>0.01041938167868659</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03755221276628501</v>
+        <v>0.03912193104893575</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -7768,19 +7768,19 @@
         <v>5255</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1900</v>
+        <v>2011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12448</v>
+        <v>12052</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01025330604185375</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003706795837403397</v>
+        <v>0.003923710711475952</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02428784041965559</v>
+        <v>0.02351456467013337</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -7789,19 +7789,19 @@
         <v>16317</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9459</v>
+        <v>9202</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26527</v>
+        <v>26744</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01595122767751029</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009247392950732274</v>
+        <v>0.008995440591532285</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02593310701236366</v>
+        <v>0.02614528259347205</v>
       </c>
     </row>
     <row r="7">
@@ -7818,19 +7818,19 @@
         <v>27109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18118</v>
+        <v>17842</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38257</v>
+        <v>39059</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0531134318090179</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03549765544048764</v>
+        <v>0.03495727026143224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07495619346419635</v>
+        <v>0.07652745077723032</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -7839,19 +7839,19 @@
         <v>22705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14285</v>
+        <v>14490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32633</v>
+        <v>33847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04430013287450835</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02787133370563974</v>
+        <v>0.02827223817113402</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06367124962184147</v>
+        <v>0.06603934711857783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -7860,19 +7860,19 @@
         <v>49813</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37029</v>
+        <v>37611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68303</v>
+        <v>65583</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04869758743510889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03619922953336394</v>
+        <v>0.03676836638864101</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06677292347583347</v>
+        <v>0.06411409244728554</v>
       </c>
     </row>
     <row r="8">
@@ -7889,19 +7889,19 @@
         <v>71802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58357</v>
+        <v>57160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88266</v>
+        <v>89069</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1406810301580806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1143376276459081</v>
+        <v>0.1119921436015098</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1729375297686014</v>
+        <v>0.1745117829261353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -7910,19 +7910,19 @@
         <v>75072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60298</v>
+        <v>60642</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92641</v>
+        <v>90758</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1464755296234697</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1176483178012593</v>
+        <v>0.118320246330614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1807533399941615</v>
+        <v>0.1770797523909213</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>147</v>
@@ -7931,19 +7931,19 @@
         <v>146875</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>125666</v>
+        <v>126381</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>170229</v>
+        <v>169759</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.143584325286726</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1228504240038356</v>
+        <v>0.1235500300501709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1664153972851497</v>
+        <v>0.1659556469840879</v>
       </c>
     </row>
     <row r="9">
@@ -7960,19 +7960,19 @@
         <v>148227</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>125799</v>
+        <v>127041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>167581</v>
+        <v>169623</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2904182098548854</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2464770260425733</v>
+        <v>0.2489092678542787</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3283400040213457</v>
+        <v>0.3323397830300394</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>162</v>
@@ -7981,19 +7981,19 @@
         <v>160104</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>140680</v>
+        <v>140554</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>180455</v>
+        <v>183153</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3123832678285162</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2744832131723431</v>
+        <v>0.274238689648683</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3520898078417526</v>
+        <v>0.3573538312884776</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>309</v>
@@ -8002,19 +8002,19 @@
         <v>308331</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>280471</v>
+        <v>280066</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>337913</v>
+        <v>340390</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3014236549664371</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2741878023171607</v>
+        <v>0.2737925267537875</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3303435101747749</v>
+        <v>0.3327643212861037</v>
       </c>
     </row>
     <row r="10">
@@ -8031,19 +8031,19 @@
         <v>188033</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>166323</v>
+        <v>166305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208843</v>
+        <v>208654</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3684112607857498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3258747431123212</v>
+        <v>0.3258385310100463</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4091823826503006</v>
+        <v>0.4088128553622697</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -8052,19 +8052,19 @@
         <v>191311</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171602</v>
+        <v>170462</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213890</v>
+        <v>212992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3732714908813344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.334816995282758</v>
+        <v>0.3325926843914154</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.417325337656165</v>
+        <v>0.4155735661936728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -8073,19 +8073,19 @@
         <v>379344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>347932</v>
+        <v>347043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>409425</v>
+        <v>408995</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3708464465071206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3401380277291141</v>
+        <v>0.3392687464015173</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4002536454171569</v>
+        <v>0.399832467375166</v>
       </c>
     </row>
     <row r="11">
@@ -8102,19 +8102,19 @@
         <v>62014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47750</v>
+        <v>47974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77827</v>
+        <v>78853</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1215023519702533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09355685569081884</v>
+        <v>0.09399392342717304</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1524861521680766</v>
+        <v>0.1544947532041601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -8123,19 +8123,19 @@
         <v>57254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42549</v>
+        <v>43671</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>72820</v>
+        <v>72424</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1117102981190593</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0830175615389875</v>
+        <v>0.08520694475965701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1420816086716274</v>
+        <v>0.1413073652592999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>111</v>
@@ -8144,19 +8144,19 @@
         <v>119268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>96675</v>
+        <v>99529</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139596</v>
+        <v>143327</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1165961090038997</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09450925051929399</v>
+        <v>0.09729915592285485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1364688861759776</v>
+        <v>0.1401164296192264</v>
       </c>
     </row>
     <row r="12">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5383</v>
+        <v>6307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00134580669929388</v>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006758156866443575</v>
+        <v>0.007918565888180795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5248</v>
+        <v>5300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001275022370339337</v>
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006394902893683952</v>
+        <v>0.006458427133841918</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6407</v>
+        <v>7392</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001309886020980957</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003961887941184729</v>
+        <v>0.004570920571374563</v>
       </c>
     </row>
     <row r="14">
@@ -8319,19 +8319,19 @@
         <v>10630</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4820</v>
+        <v>4867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19744</v>
+        <v>19188</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0133462731532419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006051668869330524</v>
+        <v>0.006110139767736741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02478866405239019</v>
+        <v>0.02409095733490622</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -8340,19 +8340,19 @@
         <v>8231</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3713</v>
+        <v>3785</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15925</v>
+        <v>16282</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01003031502395382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004524125429145349</v>
+        <v>0.004611948498854333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01940641907924971</v>
+        <v>0.01984149116202251</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -8361,19 +8361,19 @@
         <v>18861</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11246</v>
+        <v>11104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29090</v>
+        <v>29126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0116635353633877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006954517079085157</v>
+        <v>0.006866430639394521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01798877284979193</v>
+        <v>0.01801094566496935</v>
       </c>
     </row>
     <row r="15">
@@ -8390,19 +8390,19 @@
         <v>17770</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10976</v>
+        <v>10992</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>28455</v>
+        <v>28882</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02231088029033184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01378079848404432</v>
+        <v>0.01380050438544534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03572649786434507</v>
+        <v>0.03626254177270148</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -8411,19 +8411,19 @@
         <v>15102</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8926</v>
+        <v>8678</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24718</v>
+        <v>23807</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01840301980708448</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01087650044214641</v>
+        <v>0.01057449932123231</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03012134192738127</v>
+        <v>0.0290104315529121</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>31</v>
@@ -8432,19 +8432,19 @@
         <v>32872</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22775</v>
+        <v>22237</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>45638</v>
+        <v>45527</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02032777186246697</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01408400510984652</v>
+        <v>0.01375103014101484</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02822228392613086</v>
+        <v>0.02815317398990132</v>
       </c>
     </row>
     <row r="16">
@@ -8461,19 +8461,19 @@
         <v>51319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37891</v>
+        <v>38432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67134</v>
+        <v>68562</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06443209828019909</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04757364913883054</v>
+        <v>0.04825304078705332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08428864487186004</v>
+        <v>0.08608086094307141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -8482,19 +8482,19 @@
         <v>56491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43023</v>
+        <v>43606</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73166</v>
+        <v>72550</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06883838805877117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05242707799513284</v>
+        <v>0.05313683448946922</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08915841792945368</v>
+        <v>0.08840860357410568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -8503,19 +8503,19 @@
         <v>107809</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90059</v>
+        <v>88792</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>131785</v>
+        <v>129558</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06666814289667421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0556913826753529</v>
+        <v>0.05490787548628027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08149444702544528</v>
+        <v>0.0801172505171292</v>
       </c>
     </row>
     <row r="17">
@@ -8532,19 +8532,19 @@
         <v>142362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120445</v>
+        <v>119861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163760</v>
+        <v>166561</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1787400134208824</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1512222442617424</v>
+        <v>0.1504892526134327</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2056050503307296</v>
+        <v>0.2091224359075858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -8553,19 +8553,19 @@
         <v>123795</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102989</v>
+        <v>104741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143910</v>
+        <v>149359</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1508545102870044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1255003138195209</v>
+        <v>0.1276355500252095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1753657841414603</v>
+        <v>0.1820057069299786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>246</v>
@@ -8574,19 +8574,19 @@
         <v>266158</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237354</v>
+        <v>238128</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297270</v>
+        <v>298001</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1645890537033819</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1467771629027024</v>
+        <v>0.1472555165379141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1838283062680499</v>
+        <v>0.1842804101044516</v>
       </c>
     </row>
     <row r="18">
@@ -8603,19 +8603,19 @@
         <v>235369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>210420</v>
+        <v>210429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>264603</v>
+        <v>263901</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2955120689219368</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2641875092666283</v>
+        <v>0.264199718003814</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3322157721905011</v>
+        <v>0.3313345950353849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>238</v>
@@ -8624,19 +8624,19 @@
         <v>252242</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>225929</v>
+        <v>228231</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>280814</v>
+        <v>282049</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3073775300027727</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.275313205640598</v>
+        <v>0.2781183877731301</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3421943938316092</v>
+        <v>0.3436993951128713</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>457</v>
@@ -8645,19 +8645,19 @@
         <v>487611</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>452746</v>
+        <v>448399</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>525385</v>
+        <v>529195</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3015333933706425</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2799731473924364</v>
+        <v>0.2772850960018621</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3248923165289664</v>
+        <v>0.3272485971150961</v>
       </c>
     </row>
     <row r="19">
@@ -8674,19 +8674,19 @@
         <v>262649</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>236491</v>
+        <v>237910</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>291812</v>
+        <v>289676</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3297635631166675</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2969208422626824</v>
+        <v>0.2987021982947443</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3663773911941736</v>
+        <v>0.3636958712019818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>257</v>
@@ -8695,19 +8695,19 @@
         <v>277332</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>250345</v>
+        <v>250740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>303519</v>
+        <v>305463</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3379517978629723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3050651850836022</v>
+        <v>0.3055469008985468</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3698619788246117</v>
+        <v>0.3722314154521161</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>508</v>
@@ -8716,19 +8716,19 @@
         <v>539982</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>504805</v>
+        <v>498662</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>578096</v>
+        <v>575254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3339188182503511</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3121659124584825</v>
+        <v>0.3083669556627826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3574882834371499</v>
+        <v>0.3557305065112834</v>
       </c>
     </row>
     <row r="20">
@@ -8745,19 +8745,19 @@
         <v>75306</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58966</v>
+        <v>59596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92937</v>
+        <v>92660</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09454929611744656</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07403353375369766</v>
+        <v>0.07482462459806719</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.116684706124217</v>
+        <v>0.1163372667490729</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -8766,19 +8766,19 @@
         <v>86387</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69815</v>
+        <v>68892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106902</v>
+        <v>106822</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1052694165871018</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08507512296354351</v>
+        <v>0.08395077424631064</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.130268970155004</v>
+        <v>0.1301712786668869</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>150</v>
@@ -8787,19 +8787,19 @@
         <v>161693</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>138795</v>
+        <v>138004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189201</v>
+        <v>187883</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09998939853211466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08582912124015374</v>
+        <v>0.0853399447740488</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1169995489473284</v>
+        <v>0.1161845149170718</v>
       </c>
     </row>
     <row r="21">
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5596</v>
+        <v>4844</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001804805082435808</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009052735396216238</v>
+        <v>0.007836247554118944</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6008</v>
+        <v>5028</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0008870095599340493</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004776778241915745</v>
+        <v>0.003997608658732187</v>
       </c>
     </row>
     <row r="23">
@@ -8954,19 +8954,19 @@
         <v>8837</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4205</v>
+        <v>4275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16797</v>
+        <v>16406</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01429544570573326</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006802590410777324</v>
+        <v>0.006916436608199988</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02717268505464602</v>
+        <v>0.02654035241205112</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9725</v>
+        <v>9029</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003867265190955112</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01520477732381911</v>
+        <v>0.01411696410202296</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -8996,19 +8996,19 @@
         <v>11310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5794</v>
+        <v>5617</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20268</v>
+        <v>19662</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008992414659640294</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004606718156108591</v>
+        <v>0.004465778295281908</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01611410087355666</v>
+        <v>0.01563265747981213</v>
       </c>
     </row>
     <row r="24">
@@ -9025,19 +9025,19 @@
         <v>26924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17245</v>
+        <v>17225</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40142</v>
+        <v>38983</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04355411168608534</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02789697249596309</v>
+        <v>0.02786429562090375</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06493699652819059</v>
+        <v>0.06306331131234114</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -9046,19 +9046,19 @@
         <v>24227</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16062</v>
+        <v>16103</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36353</v>
+        <v>35627</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03787680848123773</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02511238667113592</v>
+        <v>0.02517604794021979</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05683518412208327</v>
+        <v>0.05569974066596609</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -9067,19 +9067,19 @@
         <v>51150</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37277</v>
+        <v>37352</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>66340</v>
+        <v>68856</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04066703899773626</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02963737400104971</v>
+        <v>0.02969671984883417</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05274392173859659</v>
+        <v>0.05474435594381567</v>
       </c>
     </row>
     <row r="25">
@@ -9096,19 +9096,19 @@
         <v>37772</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27126</v>
+        <v>26873</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52766</v>
+        <v>51451</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06110360192639707</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04388085582740886</v>
+        <v>0.04347155307467324</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08535880272961617</v>
+        <v>0.08323253430917472</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -9117,19 +9117,19 @@
         <v>38762</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27770</v>
+        <v>28088</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52120</v>
+        <v>52645</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06060198627519762</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04341609715472002</v>
+        <v>0.04391325486717205</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08148633366770668</v>
+        <v>0.08230616826400781</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -9138,19 +9138,19 @@
         <v>76534</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60102</v>
+        <v>60705</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94323</v>
+        <v>95313</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06084851587684632</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04778396502063457</v>
+        <v>0.04826375938914008</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07499139122367449</v>
+        <v>0.07577883878646666</v>
       </c>
     </row>
     <row r="26">
@@ -9167,19 +9167,19 @@
         <v>97216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80947</v>
+        <v>80554</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118910</v>
+        <v>117934</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1572656378744553</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1309474947872376</v>
+        <v>0.1303111402123381</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1923606792875028</v>
+        <v>0.190781548409127</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -9188,19 +9188,19 @@
         <v>93769</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78724</v>
+        <v>77592</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>113176</v>
+        <v>113355</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1466023059586249</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.123080406360576</v>
+        <v>0.1213099422709782</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1769427181455225</v>
+        <v>0.1772234108040252</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>179</v>
@@ -9209,19 +9209,19 @@
         <v>190985</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>165222</v>
+        <v>165082</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>217303</v>
+        <v>218367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1518430255477597</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1313597025420768</v>
+        <v>0.1312486743413546</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1727669971666441</v>
+        <v>0.1736125718198971</v>
       </c>
     </row>
     <row r="27">
@@ -9238,19 +9238,19 @@
         <v>196965</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>170782</v>
+        <v>173188</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>223162</v>
+        <v>219918</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3186297997632698</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2762737171827426</v>
+        <v>0.2801653000131568</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.361008006303398</v>
+        <v>0.3557608399494245</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>175</v>
@@ -9259,19 +9259,19 @@
         <v>181638</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>158135</v>
+        <v>159329</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>206510</v>
+        <v>204146</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2839790075438761</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2472334464547002</v>
+        <v>0.2491001958412054</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3228640815559216</v>
+        <v>0.3191686750208383</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>354</v>
@@ -9280,19 +9280,19 @@
         <v>378603</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>344280</v>
+        <v>347045</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>410378</v>
+        <v>413016</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3010088709108438</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2737204008321126</v>
+        <v>0.2759182430804736</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3262711842269359</v>
+        <v>0.3283691157330939</v>
       </c>
     </row>
     <row r="28">
@@ -9309,19 +9309,19 @@
         <v>194470</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>171890</v>
+        <v>172074</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>218905</v>
+        <v>218499</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3145931301419648</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.278066403763624</v>
+        <v>0.2783642541138009</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3541220723176101</v>
+        <v>0.3534651741455969</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>207</v>
@@ -9330,19 +9330,19 @@
         <v>230275</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>204664</v>
+        <v>207537</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>254004</v>
+        <v>254690</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3600196385463431</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3199781661222216</v>
+        <v>0.3244697494160011</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3971180649936298</v>
+        <v>0.3981909631409571</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>390</v>
@@ -9351,19 +9351,19 @@
         <v>424745</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>389603</v>
+        <v>390440</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>458873</v>
+        <v>459981</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3376938219685625</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3097543198968414</v>
+        <v>0.3104193810183261</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3648277343727379</v>
+        <v>0.365708431925283</v>
       </c>
     </row>
     <row r="29">
@@ -9380,19 +9380,19 @@
         <v>54864</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41476</v>
+        <v>41185</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>72310</v>
+        <v>68531</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08875346781965862</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0670960506525443</v>
+        <v>0.06662414766398311</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1169748858856861</v>
+        <v>0.1108625747633794</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -9401,19 +9401,19 @@
         <v>68473</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>53982</v>
+        <v>54109</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>85642</v>
+        <v>85620</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1070529880037654</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08439761677999082</v>
+        <v>0.08459531832765156</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.133895748015884</v>
+        <v>0.1338618644812487</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>114</v>
@@ -9422,19 +9422,19 @@
         <v>123337</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>104780</v>
+        <v>102928</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>147055</v>
+        <v>146320</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09805930247867703</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08330538872967024</v>
+        <v>0.08183311148258784</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1169160366058538</v>
+        <v>0.1163316875390951</v>
       </c>
     </row>
     <row r="30">
@@ -9526,19 +9526,19 @@
         <v>2740</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7375</v>
+        <v>7346</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.004042175678922733</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001331282899365299</v>
+        <v>0.001327281660644363</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01088081157900843</v>
+        <v>0.01083745997070494</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5761</v>
+        <v>4971</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001388484110070744</v>
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.00795347441095825</v>
+        <v>0.006862582429763318</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -9568,19 +9568,19 @@
         <v>3746</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8733</v>
+        <v>9322</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002671284707939465</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0006568659821610399</v>
+        <v>0.0006553592372904203</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.006227972154086353</v>
+        <v>0.006648574284831905</v>
       </c>
     </row>
     <row r="32">
@@ -9597,19 +9597,19 @@
         <v>20542</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12914</v>
+        <v>12837</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31490</v>
+        <v>32203</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03030628171088199</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01905329076120974</v>
+        <v>0.0189393603829478</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04645922356379195</v>
+        <v>0.04751067451793047</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -9618,19 +9618,19 @@
         <v>16636</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9399</v>
+        <v>9512</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27369</v>
+        <v>26366</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02296709957287699</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01297531634042986</v>
+        <v>0.01313106853917127</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03778338829934383</v>
+        <v>0.03639907164157579</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -9639,19 +9639,19 @@
         <v>37178</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25899</v>
+        <v>25315</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>52132</v>
+        <v>50827</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02651487707083737</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01847084586478159</v>
+        <v>0.01805401830162446</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03718010595424099</v>
+        <v>0.03624879564342243</v>
       </c>
     </row>
     <row r="33">
@@ -9668,19 +9668,19 @@
         <v>26530</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>16836</v>
+        <v>18381</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>38467</v>
+        <v>40278</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03914033073002766</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0248391853460772</v>
+        <v>0.0271182348735089</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05675242297358458</v>
+        <v>0.05942447162967316</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>18</v>
@@ -9689,19 +9689,19 @@
         <v>19636</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>11654</v>
+        <v>11930</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>30385</v>
+        <v>30958</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02710802958557807</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01608849027620927</v>
+        <v>0.01646989936636818</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04194845814462611</v>
+        <v>0.04273871732948278</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>43</v>
@@ -9710,19 +9710,19 @@
         <v>46165</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>32436</v>
+        <v>34680</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>62152</v>
+        <v>62952</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0329244715877335</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02313296421781711</v>
+        <v>0.02473326305841403</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04432572127174773</v>
+        <v>0.04489639289615492</v>
       </c>
     </row>
     <row r="34">
@@ -9739,19 +9739,19 @@
         <v>85029</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>68887</v>
+        <v>68750</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>104268</v>
+        <v>104199</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.125447072125242</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1016316285380051</v>
+        <v>0.1014294584365265</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1538311011177317</v>
+        <v>0.1537299235262702</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>74</v>
@@ -9760,19 +9760,19 @@
         <v>80146</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>65203</v>
+        <v>64265</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101092</v>
+        <v>99236</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1106443668104109</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09001502141596636</v>
+        <v>0.08872018562837702</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1395624171332011</v>
+        <v>0.1370000914508964</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>156</v>
@@ -9781,19 +9781,19 @@
         <v>165175</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>140151</v>
+        <v>140572</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>191593</v>
+        <v>189248</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1178000285500134</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09995369866655711</v>
+        <v>0.1002539334219816</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1366411647430061</v>
+        <v>0.1349687624420295</v>
       </c>
     </row>
     <row r="35">
@@ -9810,19 +9810,19 @@
         <v>111911</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>93067</v>
+        <v>94005</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>132134</v>
+        <v>131143</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1651071846912291</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1373051478399618</v>
+        <v>0.1386898727840517</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1949429470572961</v>
+        <v>0.1934812190637002</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>104</v>
@@ -9831,19 +9831,19 @@
         <v>110766</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>91806</v>
+        <v>89904</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>134163</v>
+        <v>132027</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1529173168626606</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1267424694034669</v>
+        <v>0.1241158305086434</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1852174592547061</v>
+        <v>0.1822688355250717</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>218</v>
@@ -9852,19 +9852,19 @@
         <v>222677</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>197118</v>
+        <v>197715</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>252250</v>
+        <v>249886</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1588099269617284</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.140581580404898</v>
+        <v>0.1410070189707624</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1799009769775024</v>
+        <v>0.1782147763459933</v>
       </c>
     </row>
     <row r="36">
@@ -9881,19 +9881,19 @@
         <v>206806</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>184176</v>
+        <v>184844</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>229390</v>
+        <v>231750</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3051097428812086</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2717224861864159</v>
+        <v>0.2727083482345171</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3384284532919618</v>
+        <v>0.3419106723964804</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>190</v>
@@ -9902,19 +9902,19 @@
         <v>204271</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>182254</v>
+        <v>181163</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>230827</v>
+        <v>229258</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2820054098678038</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2516091708371405</v>
+        <v>0.2501028018777028</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3186670849064808</v>
+        <v>0.3165000027334807</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>401</v>
@@ -9923,19 +9923,19 @@
         <v>411077</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>376462</v>
+        <v>375530</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>446278</v>
+        <v>446370</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2931740974993418</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2684868222042809</v>
+        <v>0.2678224231239027</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3182784622980792</v>
+        <v>0.3183442273194737</v>
       </c>
     </row>
     <row r="37">
@@ -9952,19 +9952,19 @@
         <v>161666</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>139810</v>
+        <v>141612</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>185230</v>
+        <v>186005</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2385132049437117</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2062682254682919</v>
+        <v>0.2089261862426459</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2732776943585376</v>
+        <v>0.274421461128421</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>196</v>
@@ -9973,19 +9973,19 @@
         <v>212107</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>189223</v>
+        <v>186485</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>237439</v>
+        <v>239246</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2928229090039945</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2612310361180861</v>
+        <v>0.257449898754308</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3277940315640262</v>
+        <v>0.330289731406282</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>360</v>
@@ -9994,19 +9994,19 @@
         <v>373773</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>343659</v>
+        <v>342578</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>407095</v>
+        <v>406243</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2665694733536927</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2450925677302224</v>
+        <v>0.2443211619781602</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2903343369707101</v>
+        <v>0.2897263974821002</v>
       </c>
     </row>
     <row r="38">
@@ -10023,19 +10023,19 @@
         <v>62585</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>47786</v>
+        <v>47197</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>78800</v>
+        <v>77472</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0923340072387762</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07050102708535572</v>
+        <v>0.0696324028792451</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1162564666927224</v>
+        <v>0.1142971399196199</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>73</v>
@@ -10044,19 +10044,19 @@
         <v>79785</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>64294</v>
+        <v>62849</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>97404</v>
+        <v>97829</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1101463841866044</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0887608978317848</v>
+        <v>0.08676594220347128</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1344698241182663</v>
+        <v>0.1350565999956094</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>135</v>
@@ -10065,19 +10065,19 @@
         <v>142370</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>121011</v>
+        <v>122114</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>164960</v>
+        <v>166716</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1015358402687134</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08630353940742692</v>
+        <v>0.0870900040817498</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1176469603030892</v>
+        <v>0.1188990746475405</v>
       </c>
     </row>
     <row r="39">
@@ -10169,19 +10169,19 @@
         <v>4927</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10974</v>
+        <v>11448</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001893081621782522</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0007057731048076215</v>
+        <v>0.0007030661509925065</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.004216244551507839</v>
+        <v>0.00439827134722356</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -10190,19 +10190,19 @@
         <v>2875</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7753</v>
+        <v>8023</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001066014511879089</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0003037182517087551</v>
+        <v>0.0003045671229871943</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00287456216584997</v>
+        <v>0.002974548928893669</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -10211,19 +10211,19 @@
         <v>7803</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3663</v>
+        <v>3733</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15373</v>
+        <v>15053</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00147219156352036</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0006911328840773752</v>
+        <v>0.0007043323600820055</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.002900559715073994</v>
+        <v>0.002840160401512489</v>
       </c>
     </row>
     <row r="41">
@@ -10240,19 +10240,19 @@
         <v>42153</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>30524</v>
+        <v>30489</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>57569</v>
+        <v>57648</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01619492167293166</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01172737885781935</v>
+        <v>0.01171390462780011</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02211769955374983</v>
+        <v>0.02214805340893494</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -10261,19 +10261,19 @@
         <v>27341</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17967</v>
+        <v>17176</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>39844</v>
+        <v>40087</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01013710125633341</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006661422213238185</v>
+        <v>0.006368205566398093</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01477275586503821</v>
+        <v>0.01486295310825925</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>63</v>
@@ -10282,19 +10282,19 @@
         <v>69494</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>53849</v>
+        <v>53562</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>87664</v>
+        <v>91013</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01311212904636784</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01016018444387935</v>
+        <v>0.01010619906431261</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01654057732942686</v>
+        <v>0.01717229667680188</v>
       </c>
     </row>
     <row r="42">
@@ -10311,19 +10311,19 @@
         <v>82285</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>65428</v>
+        <v>64055</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>103628</v>
+        <v>102054</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03161354168232323</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02513711166019015</v>
+        <v>0.02460975599512613</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03981328843056521</v>
+        <v>0.03920886633555552</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>61</v>
@@ -10332,19 +10332,19 @@
         <v>64220</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>48190</v>
+        <v>49698</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>81157</v>
+        <v>81594</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02381039651146745</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01786702112059424</v>
+        <v>0.01842622621773832</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03009015256389629</v>
+        <v>0.03025210380859162</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>134</v>
@@ -10353,19 +10353,19 @@
         <v>146505</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>122598</v>
+        <v>123439</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>172096</v>
+        <v>173029</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02764256256072201</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02313190187504643</v>
+        <v>0.02329053892333262</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03247119976570714</v>
+        <v>0.03264729822923067</v>
       </c>
     </row>
     <row r="43">
@@ -10382,19 +10382,19 @@
         <v>201228</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>175727</v>
+        <v>175971</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>233371</v>
+        <v>232388</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07731108190384527</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06751352816370532</v>
+        <v>0.06760726189186245</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08966027922060973</v>
+        <v>0.08928263988030347</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>187</v>
@@ -10403,19 +10403,19 @@
         <v>198103</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>168575</v>
+        <v>169854</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>224080</v>
+        <v>225630</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07344984740609914</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06250169874718181</v>
+        <v>0.06297603267569442</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08308117356238953</v>
+        <v>0.08365571088030761</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>374</v>
@@ -10424,19 +10424,19 @@
         <v>399332</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>362086</v>
+        <v>359480</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>440819</v>
+        <v>435838</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07534612018156134</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0683186633809304</v>
+        <v>0.06782690152210978</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08317393573022031</v>
+        <v>0.08223422740099373</v>
       </c>
     </row>
     <row r="44">
@@ -10453,19 +10453,19 @@
         <v>423292</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>384779</v>
+        <v>385015</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>458906</v>
+        <v>463583</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1626268254646989</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1478304725208708</v>
+        <v>0.1479210894234856</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1763095814582996</v>
+        <v>0.1781065987605933</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>388</v>
@@ -10474,19 +10474,19 @@
         <v>403403</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>367573</v>
+        <v>366296</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>443266</v>
+        <v>439762</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1495679825989306</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1362833452624772</v>
+        <v>0.1358097669289895</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1643478776031624</v>
+        <v>0.1630483689683197</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>790</v>
@@ -10495,19 +10495,19 @@
         <v>826695</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>768585</v>
+        <v>775099</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>880723</v>
+        <v>884835</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1559812497081543</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1450169993419854</v>
+        <v>0.1462461472966213</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1661753986726481</v>
+        <v>0.1669511721656262</v>
       </c>
     </row>
     <row r="45">
@@ -10524,19 +10524,19 @@
         <v>787367</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>740132</v>
+        <v>736601</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>833791</v>
+        <v>837180</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3025029148876973</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2843557059043897</v>
+        <v>0.282998933364691</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3203391132655907</v>
+        <v>0.3216409819449526</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>765</v>
@@ -10545,19 +10545,19 @@
         <v>798256</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>748984</v>
+        <v>753492</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>851617</v>
+        <v>847300</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2959657661606276</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2776975143659827</v>
+        <v>0.279368973166074</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3157500900336582</v>
+        <v>0.3141494222254594</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1521</v>
@@ -10566,19 +10566,19 @@
         <v>1585623</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1518809</v>
+        <v>1516592</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1658167</v>
+        <v>1649541</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2991761946304669</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2865697201897003</v>
+        <v>0.2861513643278223</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3128639714237313</v>
+        <v>0.3112364117424617</v>
       </c>
     </row>
     <row r="46">
@@ -10595,19 +10595,19 @@
         <v>806819</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>760449</v>
+        <v>758750</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>852480</v>
+        <v>855735</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3099764859650241</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2921611924865083</v>
+        <v>0.2915085007933444</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3275192122935948</v>
+        <v>0.3287697301747964</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>844</v>
@@ -10616,19 +10616,19 @@
         <v>911026</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>861152</v>
+        <v>859360</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>967095</v>
+        <v>958224</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3377767824224204</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3192852704525808</v>
+        <v>0.3186211301051373</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3585654173612161</v>
+        <v>0.3552763365819888</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1627</v>
@@ -10637,19 +10637,19 @@
         <v>1717845</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1647395</v>
+        <v>1638474</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1786390</v>
+        <v>1782882</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3241239091372804</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3108314210273854</v>
+        <v>0.3091482306917043</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.337057102008772</v>
+        <v>0.3363952639823797</v>
       </c>
     </row>
     <row r="47">
@@ -10666,19 +10666,19 @@
         <v>254769</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>226492</v>
+        <v>224552</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>288663</v>
+        <v>284751</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09788114680169703</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08701725847270773</v>
+        <v>0.08627196539628254</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1109031710653545</v>
+        <v>0.1094000666597028</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>269</v>
@@ -10687,19 +10687,19 @@
         <v>291899</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>260019</v>
+        <v>259667</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>329237</v>
+        <v>324659</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1082261091322423</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.09640595469577105</v>
+        <v>0.09627573075967036</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1220696555313888</v>
+        <v>0.1203721894060232</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>510</v>
@@ -10708,19 +10708,19 @@
         <v>546668</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>502125</v>
+        <v>501747</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>589089</v>
+        <v>591062</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1031456431719268</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09474131471906722</v>
+        <v>0.09466996354949829</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1111495773257762</v>
+        <v>0.1115219913443716</v>
       </c>
     </row>
     <row r="48">
